--- a/doc/wyniki.xlsx
+++ b/doc/wyniki.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10007" uniqueCount="3041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10008" uniqueCount="3042">
   <si>
     <t>10_3_5_3</t>
   </si>
@@ -9170,6 +9170,9 @@
   </si>
   <si>
     <t>Koszt</t>
+  </si>
+  <si>
+    <t>Średnia</t>
   </si>
 </sst>
 </file>
@@ -9221,7 +9224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9233,6 +9236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -9519,8 +9523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9846,7 +9850,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1">
         <v>130.30000000000001</v>
@@ -9864,7 +9868,7 @@
         <v>3.4140233677518301</v>
       </c>
       <c r="H11" s="1">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I11" s="1">
         <v>129.9</v>
@@ -9975,7 +9979,7 @@
       </c>
       <c r="B15" s="1">
         <f>SUM(B3:B14)</f>
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="C15" s="1">
         <f>SUM(C3:C14)</f>
@@ -9999,7 +10003,7 @@
       </c>
       <c r="H15" s="1">
         <f>SUM(H3:H14)</f>
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="I15" s="1">
         <f>SUM(I3:I14)</f>
@@ -10008,6 +10012,47 @@
       <c r="J15" s="1">
         <f>SUM(J3:J14)</f>
         <v>10.433368771936143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B16" s="1">
+        <f>AVERAGE(B3:B14)</f>
+        <v>212.5</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" ref="C16:J16" si="0">AVERAGE(C3:C14)</f>
+        <v>213.75</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78928778988899584</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>213.91666666666666</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>215.79166666666666</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4411275228875602</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>212.75</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>213.92500000000004</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.86944739766134527</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.25">
@@ -10030,7 +10075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1664"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
